--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3213272.903430638</v>
+        <v>3210896.276483273</v>
       </c>
     </row>
     <row r="7">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>35.95245435214135</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>314.3477923477919</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>56.30830983498225</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>268.9710056145399</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>323.5925776919056</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>138.422775988213</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>56.01246561959167</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>82.63324177633386</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>211.4496987473621</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>211.9016889530654</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>125.1258930250907</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>115.5971804138453</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>19.88691958258317</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242265</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>2.813978415465053</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18.52833786981371</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0.6197054599889589</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>181.4646002655647</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>73.78331078915295</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>105.6507867899569</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.3626499519043</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3436,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,16 +3481,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>219.2299359583268</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>152.6628237007935</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3895,19 +3895,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>136.6755965411348</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>46.13809394730832</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,16 +4144,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>18.52833786981416</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,10 +4192,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1284.324637962024</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="C2" t="n">
-        <v>1284.324637962024</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="D2" t="n">
-        <v>926.0589393552737</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,46 +4334,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796631</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1657.790396223104</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1657.790396223104</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1284.324637962024</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y2" t="n">
-        <v>1284.324637962024</v>
+        <v>880.6454412161675</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625333</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733668</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330614</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506776</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.02341329261</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>666.0018823909472</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="C4" t="n">
-        <v>666.0018823909472</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="D4" t="n">
-        <v>515.8852429786115</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="E4" t="n">
-        <v>367.9721493962184</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>108.1238672093993</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4495,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074498</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1347.327782578335</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>1075.639898119204</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X4" t="n">
-        <v>847.650347221187</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="Y4" t="n">
-        <v>847.650347221187</v>
+        <v>445.0465148290276</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>825.1084884956169</v>
+        <v>1267.498902304191</v>
       </c>
       <c r="C5" t="n">
-        <v>456.1459715552052</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D5" t="n">
-        <v>456.1459715552052</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E5" t="n">
-        <v>456.1459715552052</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674217</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4562,55 +4562,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816075</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.31341879663</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.31341879663</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X5" t="n">
-        <v>1601.84766053555</v>
+        <v>2044.238074344125</v>
       </c>
       <c r="Y5" t="n">
-        <v>1211.708328559739</v>
+        <v>1654.098742368313</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100999</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1295.75982926932</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1683.044957866265</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>896.3597508750534</v>
+        <v>444.747682288229</v>
       </c>
       <c r="C7" t="n">
-        <v>896.3597508750534</v>
+        <v>275.8114993603222</v>
       </c>
       <c r="D7" t="n">
-        <v>746.2431114627176</v>
+        <v>275.8114993603222</v>
       </c>
       <c r="E7" t="n">
-        <v>598.3300178803245</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>451.4400703824141</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>283.4536056906927</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H7" t="n">
-        <v>134.7147075541989</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.349301773071</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>1124.349301773071</v>
+        <v>962.1544032232069</v>
       </c>
       <c r="W7" t="n">
-        <v>1124.349301773071</v>
+        <v>672.7372331862464</v>
       </c>
       <c r="X7" t="n">
-        <v>896.3597508750534</v>
+        <v>444.747682288229</v>
       </c>
       <c r="Y7" t="n">
-        <v>896.3597508750534</v>
+        <v>444.747682288229</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1571.558046306621</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="C8" t="n">
         <v>1202.59552936621</v>
@@ -4793,61 +4793,61 @@
         <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345445</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2348.297218346554</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>2348.297218346554</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W8" t="n">
-        <v>2348.297218346554</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="X8" t="n">
-        <v>2348.297218346554</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="Y8" t="n">
-        <v>1958.157886370743</v>
+        <v>1416.181083656474</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103100999</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.75982926932</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>898.2468199959889</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C10" t="n">
-        <v>898.2468199959889</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
-        <v>748.1301805836531</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>600.21708700126</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5081,7 +5081,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5124,22 +5124,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958739</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>802.9288273958739</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>652.8121879835381</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>504.899094401145</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5285,13 +5285,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511905</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
         <v>631.7012443408905</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1350.99156482496</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5513,25 +5513,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5707,16 +5707,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,19 +5738,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5759,10 +5759,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>448.1846595309963</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>943.510265746755</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.6905094135296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.338974243769</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6002,34 +6002,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>868.6673633290468</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>699.7311804011399</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1317.449493370594</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1089.459942472577</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>868.6673633290468</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,31 +6221,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>924.8344286397185</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1552.432392194325</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.7575184984</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.079034721979</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2253.988764961266</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>315.9123021921482</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921482</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>721.7774158311365</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>552.8412329032296</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,19 +7014,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>710.2486053718725</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1533.987177846418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1244.570007809457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1016.58045691144</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>1016.58045691144</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,22 +7251,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>228.9331431646415</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>562.8579153358621</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1058.183521551621</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1655.562009178173</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1271.108407302817</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1050.315828159287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,22 +7400,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>949.9304447718133</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>835.5837926935558</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C43" t="n">
-        <v>835.5837926935558</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
         <v>402.7245934908939</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1017.232257523796</v>
+        <v>869.6905094135296</v>
       </c>
     </row>
     <row r="44">
@@ -7637,16 +7637,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075809</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>214.9229991561132</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>214.9229991561132</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>710.248605371872</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.1865537761984</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>781.2503708482915</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>631.1337314359557</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>483.2206378535626</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>336.3306903556522</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817746</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761984</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8064,22 +8064,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>211.0329012241565</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>224.3355197601769</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621886</v>
+        <v>319.4183821282438</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>186.5911984019044</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621888</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>186.5911984019043</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>125.5341284403481</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440134</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>249.323664908363</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>161.3036423121236</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>285.9032928766021</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>105.0583980710263</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>144.8013425629418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>139.469330230033</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,16 +25369,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>32.90770736550124</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.8601746357975</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,19 +25783,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>11.93987647707755</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>172.4465594047865</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>146.9958004224547</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,10 +26080,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>712352.7143788786</v>
+        <v>712352.7143788787</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712352.7143788788</v>
+        <v>712352.7143788787</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712352.7143788788</v>
+        <v>712352.7143788787</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>712352.7143788788</v>
+        <v>712352.7143788787</v>
       </c>
     </row>
   </sheetData>
@@ -26317,40 +26317,40 @@
         <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.274728755</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="J2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="K2" t="n">
-        <v>706253.274728755</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287551</v>
-      </c>
       <c r="O2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287558</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287555</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.683495339556816e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707334</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707374</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
+        <v>6897.424496707383</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.424496707362</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707383</v>
+      </c>
+      <c r="J4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
+        <v>6897.424496707362</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707365</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.424496707383</v>
+      </c>
+      <c r="N4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="I4" t="n">
-        <v>6897.424496707343</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707385</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707368</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707386</v>
-      </c>
       <c r="O4" t="n">
+        <v>6897.424496707383</v>
+      </c>
+      <c r="P4" t="n">
         <v>6897.424496707359</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-621187.7342161417</v>
+        <v>-621187.7342161416</v>
       </c>
       <c r="C6" t="n">
-        <v>493564.0493597781</v>
+        <v>493564.0493597782</v>
       </c>
       <c r="D6" t="n">
-        <v>493564.0493597786</v>
+        <v>493564.0493597782</v>
       </c>
       <c r="E6" t="n">
-        <v>90747.87878359448</v>
+        <v>90713.14085815946</v>
       </c>
       <c r="F6" t="n">
-        <v>598233.3204081408</v>
+        <v>598198.5824827055</v>
       </c>
       <c r="G6" t="n">
-        <v>598233.320408141</v>
+        <v>598198.5824827057</v>
       </c>
       <c r="H6" t="n">
-        <v>598233.3204081412</v>
+        <v>598198.582482705</v>
       </c>
       <c r="I6" t="n">
-        <v>598233.3204081405</v>
+        <v>598198.5824827052</v>
       </c>
       <c r="J6" t="n">
-        <v>430628.1425981584</v>
+        <v>430593.4046727228</v>
       </c>
       <c r="K6" t="n">
-        <v>598233.3204081407</v>
+        <v>598198.582482705</v>
       </c>
       <c r="L6" t="n">
-        <v>598233.3204081408</v>
+        <v>598198.582482705</v>
       </c>
       <c r="M6" t="n">
-        <v>465626.0266792143</v>
+        <v>465591.2887537787</v>
       </c>
       <c r="N6" t="n">
-        <v>598233.3204081407</v>
+        <v>598198.5824827054</v>
       </c>
       <c r="O6" t="n">
-        <v>598233.3204081412</v>
+        <v>598198.5824827057</v>
       </c>
       <c r="P6" t="n">
-        <v>598233.3204081409</v>
+        <v>598198.5824827054</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>345.9779157201204</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>13.40446612234297</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>90.94319932014659</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,19 +27585,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>17.55199272205107</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27619,16 +27619,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>83.28346804980583</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>231.308324690256</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>90.42149702697751</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>22.1633534275667</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>153.8231930236454</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>39.14356117539666</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>20.29515499784057</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>170.9258179227457</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>746.4857620875795</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,28 +32075,28 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>254.8897444730604</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>641.2555750770849</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,25 +32312,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>342.8454457931495</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>169.2687847673334</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8027404478645</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33278,10 +33278,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>399.0581126127094</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>209.2370040367373</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33509,7 +33509,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>272.7569329364655</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,7 +33749,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>261.5336801130329</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,16 +33980,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34211,28 +34211,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>349.3304751113902</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>247.3820194983578</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>577.9642335061972</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>615.5326193530509</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000389</v>
+        <v>617.098742766094</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0158803980274</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>640.584832100039</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>577.7882979947782</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>528.7520287839581</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>615.1440500042462</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>116.3353646931863</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>205.0040068187905</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>27.13475084531504</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
-        <v>310.2064960034201</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36926,10 +36926,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>265.0837051983791</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>71.39556506237828</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>134.2025531565913</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,7 +37397,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>134.6960534463662</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,16 +37628,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>211.4890361370312</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>120.5443928316911</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
